--- a/biology/Médecine/inflammatoire_induit_par_les_adjuvants/inflammatoire_induit_par_les_adjuvants.xlsx
+++ b/biology/Médecine/inflammatoire_induit_par_les_adjuvants/inflammatoire_induit_par_les_adjuvants.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome auto-immunitaire/inflammatoire induit par les adjuvants (autoimmune (auto-inflammatory) syndrome induced by adjuvants - ASIA) est une proposition de syndrome regroupant quatre affections proches : la siliconose, le syndrome de la guerre du Golfe, la myofasciite à macrophages, et les réactions post-vaccinales.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Ce syndrome propose de regrouper plusieurs affections dont les signes et symptômes sont proches (la siliconose[1], le syndrome de la guerre du Golfe[2],[3], la myofasciite à macrophages, et les réactions post-vaccinales) et dont la cause pourrait notamment être un adjuvant vaccinal utilisé pour stimuler l'immunité tels les sels d'aluminium[4],[5],[6],[7]. 
-Yehuda Shoenfeld (en), immunologiste israélien à l'origine de cette définition récente (2010), propose les critères principaux suivants pour le diagnostic du syndrome auto-immunitaire induit par les adjuvants[4],[8] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Ce syndrome propose de regrouper plusieurs affections dont les signes et symptômes sont proches (la siliconose, le syndrome de la guerre du Golfe la myofasciite à macrophages, et les réactions post-vaccinales) et dont la cause pourrait notamment être un adjuvant vaccinal utilisé pour stimuler l'immunité tels les sels d'aluminium. 
+Yehuda Shoenfeld (en), immunologiste israélien à l'origine de cette définition récente (2010), propose les critères principaux suivants pour le diagnostic du syndrome auto-immunitaire induit par les adjuvants, :
 exposition à un stimulus externe (infection, vaccin, silicone, adjuvant) avant les manifestations cliniques.
 apparition de manifestations cliniques « typiques » :
 myalgie, myosite, faiblesse musculaire,
